--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.120120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.120120.xlsx_with_dialog_acts.xlsx
@@ -643,12 +643,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2869,12 +2869,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6229,12 +6229,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6313,12 +6313,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7405,12 +7405,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7867,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8245,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9715,12 +9715,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10303,12 +10303,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11015,12 +11015,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11603,12 +11603,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11897,12 +11897,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13031,12 +13031,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13871,12 +13871,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13955,12 +13955,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14291,12 +14291,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14459,12 +14459,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15299,12 +15299,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15929,12 +15929,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16265,12 +16265,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16685,12 +16685,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16811,12 +16811,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17063,12 +17063,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17273,12 +17273,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19331,12 +19331,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19457,12 +19457,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19919,12 +19919,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20129,12 +20129,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20333,12 +20333,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20373,12 +20373,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20733,12 +20733,12 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21177,12 +21177,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21217,12 +21217,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21381,12 +21381,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21421,12 +21421,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22141,12 +22141,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22181,12 +22181,12 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22221,12 +22221,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -22301,12 +22301,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22381,12 +22381,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22501,12 +22501,12 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22581,12 +22581,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
